--- a/Data/mercado-desafio-tratado.xlsx
+++ b/Data/mercado-desafio-tratado.xlsx
@@ -460,12 +460,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Variação</t>
+          <t>Change</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Variação Percentual</t>
+          <t>Percentage Change</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7507638611178538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7507638611178538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -703,10 +703,10 @@
         <v>4.991899967193604</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.452736915778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -723,10 +723,10 @@
         <v>4.991899967193604</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.452736915778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -843,10 +843,10 @@
         <v>4.972400188446045</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08246163961050948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -863,10 +863,10 @@
         <v>4.972400188446045</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08246163961050948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -983,10 +983,10 @@
         <v>4.962399959564209</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5541704177811909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1003,10 +1003,10 @@
         <v>4.962399959564209</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5541704177811909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1123,10 +1123,10 @@
         <v>4.969799995422363</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0503049865741431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1143,10 +1143,10 @@
         <v>4.969799995422363</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0503049865741431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1986289845035179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1986289845035179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1403,10 +1403,10 @@
         <v>4.992700099945068</v>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4706865062450509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1423,10 +1423,10 @@
         <v>4.992700099945068</v>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4706865062450509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1543,10 +1543,10 @@
         <v>4.974500179290771</v>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1668570532452005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1563,10 +1563,10 @@
         <v>4.974500179290771</v>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1668570532452005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1683,10 +1683,10 @@
         <v>5.014100074768066</v>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4746593782601212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1803,10 +1803,10 @@
         <v>5.057400226593018</v>
       </c>
       <c r="E68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3717376081413996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1823,10 +1823,10 @@
         <v>5.057400226593018</v>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3717376081413996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1943,10 +1943,10 @@
         <v>5.090400218963623</v>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4754132958538194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1963,10 +1963,10 @@
         <v>5.090400218963623</v>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4754132958538194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2083,10 +2083,10 @@
         <v>5.241700172424316</v>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1736070364158134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2103,10 +2103,10 @@
         <v>5.241700172424316</v>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1736070364158134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2223,10 +2223,10 @@
         <v>5.158599853515625</v>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2539384868401592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2243,10 +2243,10 @@
         <v>5.158599853515625</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2539384868401592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.64569141806963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.64569141806963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2503,10 +2503,10 @@
         <v>5.140799999237061</v>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1.029019559246562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2523,10 +2523,10 @@
         <v>5.140799999237061</v>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1.029019559246562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.09749472221256304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.09749472221256304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.1555554855050065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.1555554855050065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.8236418200265615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.8236418200265615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.7348571560704334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.7348571560704334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3343,10 +3343,10 @@
         <v>5.452400207519531</v>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5502202455163806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3363,10 +3363,10 @@
         <v>5.452400207519531</v>
       </c>
       <c r="E146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5502202455163806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.3999606428394025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.3999606428394025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>-1.257651022548164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>-1.257651022548164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3763,10 +3763,10 @@
         <v>5.438000202178955</v>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4284694746627877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3783,10 +3783,10 @@
         <v>5.438000202178955</v>
       </c>
       <c r="E167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4284694746627877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3903,10 +3903,10 @@
         <v>5.543200016021729</v>
       </c>
       <c r="E173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1.001227275890536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3923,10 +3923,10 @@
         <v>5.543200016021729</v>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1.001227275890536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.1860755871972966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.1860755871972966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4183,10 +4183,10 @@
         <v>5.75059986114502</v>
       </c>
       <c r="E187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1.634609691869291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -4203,10 +4203,10 @@
         <v>5.75059986114502</v>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>1.634609691869291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>-1.617348099026611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>-1.617348099026611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4463,10 +4463,10 @@
         <v>5.484899997711182</v>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.2917062118365746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4483,10 +4483,10 @@
         <v>5.484899997711182</v>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.2917062118365746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4603,10 +4603,10 @@
         <v>5.59089994430542</v>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1.938862599783863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4623,10 +4623,10 @@
         <v>5.59089994430542</v>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1.938862599783863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4743,10 +4743,10 @@
         <v>5.627699851989746</v>
       </c>
       <c r="E215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>1.163881946175533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4763,10 +4763,10 @@
         <v>5.627699851989746</v>
       </c>
       <c r="E216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>1.163881946175533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>-1.338124515347604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>-1.338124515347604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>-0.7412390697094106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>-0.7412390697094106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>-0.6840066628318547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>-0.6840066628318547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.6824050618922666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.6824050618922666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -5443,10 +5443,10 @@
         <v>5.47629976272583</v>
       </c>
       <c r="E250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>0.6573740754275735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5463,10 +5463,10 @@
         <v>5.47629976272583</v>
       </c>
       <c r="E251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.6573740754275735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>-0.2579860209660735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>-0.2579860209660735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>-0.286635499604984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>-0.286635499604984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>-0.3972464338027704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>-0.3972464338027704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="n">
-        <v>-0.3972464338027704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -6023,10 +6023,10 @@
         <v>5.789400100708008</v>
       </c>
       <c r="E279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>0.4680983476827595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6043,10 +6043,10 @@
         <v>5.789400100708008</v>
       </c>
       <c r="E280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>0.4680983476827595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">

--- a/Data/mercado-desafio-tratado.xlsx
+++ b/Data/mercado-desafio-tratado.xlsx
@@ -482,7 +482,7 @@
       <c r="D2" t="n">
         <v>4.950200080871582</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
@@ -502,7 +502,7 @@
       <c r="D3" t="n">
         <v>4.950300216674805</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
@@ -522,7 +522,7 @@
       <c r="D4" t="n">
         <v>4.951900005340576</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
@@ -542,7 +542,7 @@
       <c r="D5" t="n">
         <v>4.914999961853027</v>
       </c>
-      <c r="E5" t="b">
+      <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
@@ -562,7 +562,7 @@
       <c r="D6" t="n">
         <v>4.914999961853027</v>
       </c>
-      <c r="E6" t="b">
+      <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
@@ -582,7 +582,7 @@
       <c r="D7" t="n">
         <v>4.914999961853027</v>
       </c>
-      <c r="E7" t="b">
+      <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
@@ -602,7 +602,7 @@
       <c r="D8" t="n">
         <v>4.932938098907471</v>
       </c>
-      <c r="E8" t="b">
+      <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
@@ -622,7 +622,7 @@
       <c r="D9" t="n">
         <v>4.949943065643311</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
@@ -642,7 +642,7 @@
       <c r="D10" t="n">
         <v>4.962299823760986</v>
       </c>
-      <c r="E10" t="b">
+      <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
@@ -662,7 +662,7 @@
       <c r="D11" t="n">
         <v>4.969299793243408</v>
       </c>
-      <c r="E11" t="b">
+      <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
@@ -682,7 +682,7 @@
       <c r="D12" t="n">
         <v>4.991899967193604</v>
       </c>
-      <c r="E12" t="b">
+      <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
@@ -702,7 +702,7 @@
       <c r="D13" t="n">
         <v>4.991899967193604</v>
       </c>
-      <c r="E13" t="b">
+      <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
@@ -722,7 +722,7 @@
       <c r="D14" t="n">
         <v>4.991899967193604</v>
       </c>
-      <c r="E14" t="b">
+      <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
@@ -742,7 +742,7 @@
       <c r="D15" t="n">
         <v>4.953100204467773</v>
       </c>
-      <c r="E15" t="b">
+      <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
@@ -762,7 +762,7 @@
       <c r="D16" t="n">
         <v>4.952199935913086</v>
       </c>
-      <c r="E16" t="b">
+      <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
@@ -782,7 +782,7 @@
       <c r="D17" t="n">
         <v>4.952000141143799</v>
       </c>
-      <c r="E17" t="b">
+      <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
@@ -802,7 +802,7 @@
       <c r="D18" t="n">
         <v>4.968299865722656</v>
       </c>
-      <c r="E18" t="b">
+      <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
@@ -822,7 +822,7 @@
       <c r="D19" t="n">
         <v>4.972400188446045</v>
       </c>
-      <c r="E19" t="b">
+      <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
@@ -842,7 +842,7 @@
       <c r="D20" t="n">
         <v>4.972400188446045</v>
       </c>
-      <c r="E20" t="b">
+      <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
@@ -862,7 +862,7 @@
       <c r="D21" t="n">
         <v>4.972400188446045</v>
       </c>
-      <c r="E21" t="b">
+      <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
@@ -882,7 +882,7 @@
       <c r="D22" t="n">
         <v>4.965099811553955</v>
       </c>
-      <c r="E22" t="b">
+      <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
@@ -902,7 +902,7 @@
       <c r="D23" t="n">
         <v>4.956399917602539</v>
       </c>
-      <c r="E23" t="b">
+      <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
@@ -922,7 +922,7 @@
       <c r="D24" t="n">
         <v>4.926400184631348</v>
       </c>
-      <c r="E24" t="b">
+      <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
@@ -942,7 +942,7 @@
       <c r="D25" t="n">
         <v>4.934899806976318</v>
       </c>
-      <c r="E25" t="b">
+      <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
@@ -962,7 +962,7 @@
       <c r="D26" t="n">
         <v>4.962399959564209</v>
       </c>
-      <c r="E26" t="b">
+      <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
@@ -982,7 +982,7 @@
       <c r="D27" t="n">
         <v>4.962399959564209</v>
       </c>
-      <c r="E27" t="b">
+      <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
@@ -1002,7 +1002,7 @@
       <c r="D28" t="n">
         <v>4.962399959564209</v>
       </c>
-      <c r="E28" t="b">
+      <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
@@ -1022,7 +1022,7 @@
       <c r="D29" t="n">
         <v>4.993500232696533</v>
       </c>
-      <c r="E29" t="b">
+      <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
@@ -1042,7 +1042,7 @@
       <c r="D30" t="n">
         <v>4.978899955749512</v>
       </c>
-      <c r="E30" t="b">
+      <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
@@ -1062,7 +1062,7 @@
       <c r="D31" t="n">
         <v>4.932400226593018</v>
       </c>
-      <c r="E31" t="b">
+      <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
@@ -1082,7 +1082,7 @@
       <c r="D32" t="n">
         <v>4.967299938201904</v>
       </c>
-      <c r="E32" t="b">
+      <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
@@ -1102,7 +1102,7 @@
       <c r="D33" t="n">
         <v>4.969799995422363</v>
       </c>
-      <c r="E33" t="b">
+      <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
@@ -1122,7 +1122,7 @@
       <c r="D34" t="n">
         <v>4.969799995422363</v>
       </c>
-      <c r="E34" t="b">
+      <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
@@ -1142,7 +1142,7 @@
       <c r="D35" t="n">
         <v>4.969799995422363</v>
       </c>
-      <c r="E35" t="b">
+      <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
@@ -1162,7 +1162,7 @@
       <c r="D36" t="n">
         <v>4.952700138092041</v>
       </c>
-      <c r="E36" t="b">
+      <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
@@ -1182,7 +1182,7 @@
       <c r="D37" t="n">
         <v>4.944900035858154</v>
       </c>
-      <c r="E37" t="b">
+      <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
@@ -1202,7 +1202,7 @@
       <c r="D38" t="n">
         <v>4.957099914550781</v>
       </c>
-      <c r="E38" t="b">
+      <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="n">
@@ -1222,7 +1222,7 @@
       <c r="D39" t="n">
         <v>4.943600177764893</v>
       </c>
-      <c r="E39" t="b">
+      <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
@@ -1242,7 +1242,7 @@
       <c r="D40" t="n">
         <v>4.933800220489502</v>
       </c>
-      <c r="E40" t="b">
+      <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
@@ -1262,7 +1262,7 @@
       <c r="D41" t="n">
         <v>4.933800220489502</v>
       </c>
-      <c r="E41" t="b">
+      <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
@@ -1282,7 +1282,7 @@
       <c r="D42" t="n">
         <v>4.933800220489502</v>
       </c>
-      <c r="E42" t="b">
+      <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
@@ -1302,7 +1302,7 @@
       <c r="D43" t="n">
         <v>4.977540016174316</v>
       </c>
-      <c r="E43" t="b">
+      <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
@@ -1322,7 +1322,7 @@
       <c r="D44" t="n">
         <v>4.977399826049805</v>
       </c>
-      <c r="E44" t="b">
+      <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
@@ -1342,7 +1342,7 @@
       <c r="D45" t="n">
         <v>4.968699932098389</v>
       </c>
-      <c r="E45" t="b">
+      <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
@@ -1362,7 +1362,7 @@
       <c r="D46" t="n">
         <v>4.969200134277344</v>
       </c>
-      <c r="E46" t="b">
+      <c r="E46" t="n">
         <v>1</v>
       </c>
       <c r="F46" t="n">
@@ -1382,7 +1382,7 @@
       <c r="D47" t="n">
         <v>4.992700099945068</v>
       </c>
-      <c r="E47" t="b">
+      <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
@@ -1402,7 +1402,7 @@
       <c r="D48" t="n">
         <v>4.992700099945068</v>
       </c>
-      <c r="E48" t="b">
+      <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
@@ -1422,7 +1422,7 @@
       <c r="D49" t="n">
         <v>4.992700099945068</v>
       </c>
-      <c r="E49" t="b">
+      <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
@@ -1442,7 +1442,7 @@
       <c r="D50" t="n">
         <v>4.968047142028809</v>
       </c>
-      <c r="E50" t="b">
+      <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
@@ -1462,7 +1462,7 @@
       <c r="D51" t="n">
         <v>5.029399871826172</v>
       </c>
-      <c r="E51" t="b">
+      <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="F51" t="n">
@@ -1482,7 +1482,7 @@
       <c r="D52" t="n">
         <v>5.03000020980835</v>
       </c>
-      <c r="E52" t="b">
+      <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="F52" t="n">
@@ -1502,7 +1502,7 @@
       <c r="D53" t="n">
         <v>4.96619987487793</v>
       </c>
-      <c r="E53" t="b">
+      <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
@@ -1522,7 +1522,7 @@
       <c r="D54" t="n">
         <v>4.974500179290771</v>
       </c>
-      <c r="E54" t="b">
+      <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
@@ -1542,7 +1542,7 @@
       <c r="D55" t="n">
         <v>4.974500179290771</v>
       </c>
-      <c r="E55" t="b">
+      <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
@@ -1562,7 +1562,7 @@
       <c r="D56" t="n">
         <v>4.974500179290771</v>
       </c>
-      <c r="E56" t="b">
+      <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
@@ -1582,7 +1582,7 @@
       <c r="D57" t="n">
         <v>5.000899791717529</v>
       </c>
-      <c r="E57" t="b">
+      <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
@@ -1602,7 +1602,7 @@
       <c r="D58" t="n">
         <v>4.9721999168396</v>
       </c>
-      <c r="E58" t="b">
+      <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
@@ -1622,7 +1622,7 @@
       <c r="D59" t="n">
         <v>4.975699901580811</v>
       </c>
-      <c r="E59" t="b">
+      <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
@@ -1642,7 +1642,7 @@
       <c r="D60" t="n">
         <v>4.990300178527832</v>
       </c>
-      <c r="E60" t="b">
+      <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
@@ -1662,7 +1662,7 @@
       <c r="D61" t="n">
         <v>5.014100074768066</v>
       </c>
-      <c r="E61" t="b">
+      <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
@@ -1682,7 +1682,7 @@
       <c r="D62" t="n">
         <v>5.014100074768066</v>
       </c>
-      <c r="E62" t="b">
+      <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
@@ -1702,7 +1702,7 @@
       <c r="D63" t="n">
         <v>5.013199806213379</v>
       </c>
-      <c r="E63" t="b">
+      <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
@@ -1722,7 +1722,7 @@
       <c r="D64" t="n">
         <v>5.053599834442139</v>
       </c>
-      <c r="E64" t="b">
+      <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
@@ -1742,7 +1742,7 @@
       <c r="D65" t="n">
         <v>5.064400196075439</v>
       </c>
-      <c r="E65" t="b">
+      <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="F65" t="n">
@@ -1762,7 +1762,7 @@
       <c r="D66" t="n">
         <v>5.038599967956543</v>
       </c>
-      <c r="E66" t="b">
+      <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
@@ -1782,7 +1782,7 @@
       <c r="D67" t="n">
         <v>5.057400226593018</v>
       </c>
-      <c r="E67" t="b">
+      <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="n">
@@ -1802,7 +1802,7 @@
       <c r="D68" t="n">
         <v>5.057400226593018</v>
       </c>
-      <c r="E68" t="b">
+      <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
@@ -1822,7 +1822,7 @@
       <c r="D69" t="n">
         <v>5.057400226593018</v>
       </c>
-      <c r="E69" t="b">
+      <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
@@ -1842,7 +1842,7 @@
       <c r="D70" t="n">
         <v>5.054900169372559</v>
       </c>
-      <c r="E70" t="b">
+      <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
@@ -1862,7 +1862,7 @@
       <c r="D71" t="n">
         <v>5.023900032043457</v>
       </c>
-      <c r="E71" t="b">
+      <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
@@ -1882,7 +1882,7 @@
       <c r="D72" t="n">
         <v>5.007599830627441</v>
       </c>
-      <c r="E72" t="b">
+      <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
@@ -1902,7 +1902,7 @@
       <c r="D73" t="n">
         <v>5.066199779510498</v>
       </c>
-      <c r="E73" t="b">
+      <c r="E73" t="n">
         <v>1</v>
       </c>
       <c r="F73" t="n">
@@ -1922,7 +1922,7 @@
       <c r="D74" t="n">
         <v>5.090400218963623</v>
       </c>
-      <c r="E74" t="b">
+      <c r="E74" t="n">
         <v>1</v>
       </c>
       <c r="F74" t="n">
@@ -1942,7 +1942,7 @@
       <c r="D75" t="n">
         <v>5.090400218963623</v>
       </c>
-      <c r="E75" t="b">
+      <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
@@ -1962,7 +1962,7 @@
       <c r="D76" t="n">
         <v>5.090400218963623</v>
       </c>
-      <c r="E76" t="b">
+      <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
@@ -1982,7 +1982,7 @@
       <c r="D77" t="n">
         <v>5.117099761962891</v>
       </c>
-      <c r="E77" t="b">
+      <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
@@ -2002,7 +2002,7 @@
       <c r="D78" t="n">
         <v>5.183700084686279</v>
       </c>
-      <c r="E78" t="b">
+      <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
@@ -2022,7 +2022,7 @@
       <c r="D79" t="n">
         <v>5.285500049591064</v>
       </c>
-      <c r="E79" t="b">
+      <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
@@ -2042,7 +2042,7 @@
       <c r="D80" t="n">
         <v>5.232600212097168</v>
       </c>
-      <c r="E80" t="b">
+      <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
@@ -2062,7 +2062,7 @@
       <c r="D81" t="n">
         <v>5.241700172424316</v>
       </c>
-      <c r="E81" t="b">
+      <c r="E81" t="n">
         <v>1</v>
       </c>
       <c r="F81" t="n">
@@ -2082,7 +2082,7 @@
       <c r="D82" t="n">
         <v>5.241700172424316</v>
       </c>
-      <c r="E82" t="b">
+      <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
@@ -2102,7 +2102,7 @@
       <c r="D83" t="n">
         <v>5.241700172424316</v>
       </c>
-      <c r="E83" t="b">
+      <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
@@ -2122,7 +2122,7 @@
       <c r="D84" t="n">
         <v>5.206200122833252</v>
       </c>
-      <c r="E84" t="b">
+      <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
@@ -2142,7 +2142,7 @@
       <c r="D85" t="n">
         <v>5.16569995880127</v>
       </c>
-      <c r="E85" t="b">
+      <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
@@ -2162,7 +2162,7 @@
       <c r="D86" t="n">
         <v>5.130499839782715</v>
       </c>
-      <c r="E86" t="b">
+      <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
@@ -2182,7 +2182,7 @@
       <c r="D87" t="n">
         <v>5.145500183105469</v>
       </c>
-      <c r="E87" t="b">
+      <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="n">
@@ -2202,7 +2202,7 @@
       <c r="D88" t="n">
         <v>5.158599853515625</v>
       </c>
-      <c r="E88" t="b">
+      <c r="E88" t="n">
         <v>1</v>
       </c>
       <c r="F88" t="n">
@@ -2222,7 +2222,7 @@
       <c r="D89" t="n">
         <v>5.158599853515625</v>
       </c>
-      <c r="E89" t="b">
+      <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
@@ -2242,7 +2242,7 @@
       <c r="D90" t="n">
         <v>5.158599853515625</v>
       </c>
-      <c r="E90" t="b">
+      <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
@@ -2262,7 +2262,7 @@
       <c r="D91" t="n">
         <v>5.115499973297119</v>
       </c>
-      <c r="E91" t="b">
+      <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
@@ -2282,7 +2282,7 @@
       <c r="D92" t="n">
         <v>5.117000102996826</v>
       </c>
-      <c r="E92" t="b">
+      <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="n">
@@ -2302,7 +2302,7 @@
       <c r="D93" t="n">
         <v>5.193900108337402</v>
       </c>
-      <c r="E93" t="b">
+      <c r="E93" t="n">
         <v>1</v>
       </c>
       <c r="F93" t="n">
@@ -2322,7 +2322,7 @@
       <c r="D94" t="n">
         <v>5.194399833679199</v>
       </c>
-      <c r="E94" t="b">
+      <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="n">
@@ -2342,7 +2342,7 @@
       <c r="D95" t="n">
         <v>5.110300064086914</v>
       </c>
-      <c r="E95" t="b">
+      <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
@@ -2362,7 +2362,7 @@
       <c r="D96" t="n">
         <v>5.110300064086914</v>
       </c>
-      <c r="E96" t="b">
+      <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
@@ -2382,7 +2382,7 @@
       <c r="D97" t="n">
         <v>5.110300064086914</v>
       </c>
-      <c r="E97" t="b">
+      <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
@@ -2402,7 +2402,7 @@
       <c r="D98" t="n">
         <v>5.070899963378906</v>
       </c>
-      <c r="E98" t="b">
+      <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
@@ -2422,7 +2422,7 @@
       <c r="D99" t="n">
         <v>5.074900150299072</v>
       </c>
-      <c r="E99" t="b">
+      <c r="E99" t="n">
         <v>1</v>
       </c>
       <c r="F99" t="n">
@@ -2442,7 +2442,7 @@
       <c r="D100" t="n">
         <v>5.073299884796143</v>
       </c>
-      <c r="E100" t="b">
+      <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
@@ -2462,7 +2462,7 @@
       <c r="D101" t="n">
         <v>5.087900161743164</v>
       </c>
-      <c r="E101" t="b">
+      <c r="E101" t="n">
         <v>1</v>
       </c>
       <c r="F101" t="n">
@@ -2482,7 +2482,7 @@
       <c r="D102" t="n">
         <v>5.140799999237061</v>
       </c>
-      <c r="E102" t="b">
+      <c r="E102" t="n">
         <v>1</v>
       </c>
       <c r="F102" t="n">
@@ -2502,7 +2502,7 @@
       <c r="D103" t="n">
         <v>5.140799999237061</v>
       </c>
-      <c r="E103" t="b">
+      <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
@@ -2522,7 +2522,7 @@
       <c r="D104" t="n">
         <v>5.140799999237061</v>
       </c>
-      <c r="E104" t="b">
+      <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
@@ -2542,7 +2542,7 @@
       <c r="D105" t="n">
         <v>5.123260021209717</v>
       </c>
-      <c r="E105" t="b">
+      <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
@@ -2562,7 +2562,7 @@
       <c r="D106" t="n">
         <v>5.154200077056885</v>
       </c>
-      <c r="E106" t="b">
+      <c r="E106" t="n">
         <v>1</v>
       </c>
       <c r="F106" t="n">
@@ -2582,7 +2582,7 @@
       <c r="D107" t="n">
         <v>5.127799987792969</v>
       </c>
-      <c r="E107" t="b">
+      <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
@@ -2602,7 +2602,7 @@
       <c r="D108" t="n">
         <v>5.133600234985352</v>
       </c>
-      <c r="E108" t="b">
+      <c r="E108" t="n">
         <v>1</v>
       </c>
       <c r="F108" t="n">
@@ -2622,7 +2622,7 @@
       <c r="D109" t="n">
         <v>5.128600120544434</v>
       </c>
-      <c r="E109" t="b">
+      <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
@@ -2642,7 +2642,7 @@
       <c r="D110" t="n">
         <v>5.128600120544434</v>
       </c>
-      <c r="E110" t="b">
+      <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
@@ -2662,7 +2662,7 @@
       <c r="D111" t="n">
         <v>5.128600120544434</v>
       </c>
-      <c r="E111" t="b">
+      <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
@@ -2682,7 +2682,7 @@
       <c r="D112" t="n">
         <v>5.10200023651123</v>
       </c>
-      <c r="E112" t="b">
+      <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
@@ -2702,7 +2702,7 @@
       <c r="D113" t="n">
         <v>5.103099822998047</v>
       </c>
-      <c r="E113" t="b">
+      <c r="E113" t="n">
         <v>1</v>
       </c>
       <c r="F113" t="n">
@@ -2722,7 +2722,7 @@
       <c r="D114" t="n">
         <v>5.121900081634521</v>
       </c>
-      <c r="E114" t="b">
+      <c r="E114" t="n">
         <v>1</v>
       </c>
       <c r="F114" t="n">
@@ -2742,7 +2742,7 @@
       <c r="D115" t="n">
         <v>5.151100158691406</v>
       </c>
-      <c r="E115" t="b">
+      <c r="E115" t="n">
         <v>1</v>
       </c>
       <c r="F115" t="n">
@@ -2762,7 +2762,7 @@
       <c r="D116" t="n">
         <v>5.143099784851074</v>
       </c>
-      <c r="E116" t="b">
+      <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
@@ -2782,7 +2782,7 @@
       <c r="D117" t="n">
         <v>5.143099784851074</v>
       </c>
-      <c r="E117" t="b">
+      <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
@@ -2802,7 +2802,7 @@
       <c r="D118" t="n">
         <v>5.143099784851074</v>
       </c>
-      <c r="E118" t="b">
+      <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
@@ -2822,7 +2822,7 @@
       <c r="D119" t="n">
         <v>5.1697998046875</v>
       </c>
-      <c r="E119" t="b">
+      <c r="E119" t="n">
         <v>1</v>
       </c>
       <c r="F119" t="n">
@@ -2842,7 +2842,7 @@
       <c r="D120" t="n">
         <v>5.171700000762939</v>
       </c>
-      <c r="E120" t="b">
+      <c r="E120" t="n">
         <v>1</v>
       </c>
       <c r="F120" t="n">
@@ -2862,7 +2862,7 @@
       <c r="D121" t="n">
         <v>5.161300182342529</v>
       </c>
-      <c r="E121" t="b">
+      <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
@@ -2882,7 +2882,7 @@
       <c r="D122" t="n">
         <v>5.202099800109863</v>
       </c>
-      <c r="E122" t="b">
+      <c r="E122" t="n">
         <v>1</v>
       </c>
       <c r="F122" t="n">
@@ -2902,7 +2902,7 @@
       <c r="D123" t="n">
         <v>5.202099800109863</v>
       </c>
-      <c r="E123" t="b">
+      <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
@@ -2922,7 +2922,7 @@
       <c r="D124" t="n">
         <v>5.202099800109863</v>
       </c>
-      <c r="E124" t="b">
+      <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
@@ -2942,7 +2942,7 @@
       <c r="D125" t="n">
         <v>5.202099800109863</v>
       </c>
-      <c r="E125" t="b">
+      <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
@@ -2962,7 +2962,7 @@
       <c r="D126" t="n">
         <v>5.244400024414062</v>
       </c>
-      <c r="E126" t="b">
+      <c r="E126" t="n">
         <v>1</v>
       </c>
       <c r="F126" t="n">
@@ -2982,7 +2982,7 @@
       <c r="D127" t="n">
         <v>5.249000072479248</v>
       </c>
-      <c r="E127" t="b">
+      <c r="E127" t="n">
         <v>1</v>
       </c>
       <c r="F127" t="n">
@@ -3002,7 +3002,7 @@
       <c r="D128" t="n">
         <v>5.287700176239014</v>
       </c>
-      <c r="E128" t="b">
+      <c r="E128" t="n">
         <v>1</v>
       </c>
       <c r="F128" t="n">
@@ -3022,7 +3022,7 @@
       <c r="D129" t="n">
         <v>5.300399780273438</v>
       </c>
-      <c r="E129" t="b">
+      <c r="E129" t="n">
         <v>1</v>
       </c>
       <c r="F129" t="n">
@@ -3042,7 +3042,7 @@
       <c r="D130" t="n">
         <v>5.257100105285645</v>
       </c>
-      <c r="E130" t="b">
+      <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
@@ -3062,7 +3062,7 @@
       <c r="D131" t="n">
         <v>5.257100105285645</v>
       </c>
-      <c r="E131" t="b">
+      <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
@@ -3082,7 +3082,7 @@
       <c r="D132" t="n">
         <v>5.257100105285645</v>
       </c>
-      <c r="E132" t="b">
+      <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
@@ -3102,7 +3102,7 @@
       <c r="D133" t="n">
         <v>5.270441055297852</v>
       </c>
-      <c r="E133" t="b">
+      <c r="E133" t="n">
         <v>1</v>
       </c>
       <c r="F133" t="n">
@@ -3122,7 +3122,7 @@
       <c r="D134" t="n">
         <v>5.352799892425537</v>
       </c>
-      <c r="E134" t="b">
+      <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
@@ -3142,7 +3142,7 @@
       <c r="D135" t="n">
         <v>5.3649001121521</v>
       </c>
-      <c r="E135" t="b">
+      <c r="E135" t="n">
         <v>1</v>
       </c>
       <c r="F135" t="n">
@@ -3162,7 +3162,7 @@
       <c r="D136" t="n">
         <v>5.401000022888184</v>
       </c>
-      <c r="E136" t="b">
+      <c r="E136" t="n">
         <v>1</v>
       </c>
       <c r="F136" t="n">
@@ -3182,7 +3182,7 @@
       <c r="D137" t="n">
         <v>5.361599922180176</v>
       </c>
-      <c r="E137" t="b">
+      <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
@@ -3202,7 +3202,7 @@
       <c r="D138" t="n">
         <v>5.361599922180176</v>
       </c>
-      <c r="E138" t="b">
+      <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
@@ -3222,7 +3222,7 @@
       <c r="D139" t="n">
         <v>5.361599922180176</v>
       </c>
-      <c r="E139" t="b">
+      <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
@@ -3242,7 +3242,7 @@
       <c r="D140" t="n">
         <v>5.357200145721436</v>
       </c>
-      <c r="E140" t="b">
+      <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
@@ -3262,7 +3262,7 @@
       <c r="D141" t="n">
         <v>5.423999786376953</v>
       </c>
-      <c r="E141" t="b">
+      <c r="E141" t="n">
         <v>1</v>
       </c>
       <c r="F141" t="n">
@@ -3282,7 +3282,7 @@
       <c r="D142" t="n">
         <v>5.439899921417236</v>
       </c>
-      <c r="E142" t="b">
+      <c r="E142" t="n">
         <v>1</v>
       </c>
       <c r="F142" t="n">
@@ -3302,7 +3302,7 @@
       <c r="D143" t="n">
         <v>5.422399997711182</v>
       </c>
-      <c r="E143" t="b">
+      <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
@@ -3322,7 +3322,7 @@
       <c r="D144" t="n">
         <v>5.452400207519531</v>
       </c>
-      <c r="E144" t="b">
+      <c r="E144" t="n">
         <v>1</v>
       </c>
       <c r="F144" t="n">
@@ -3342,7 +3342,7 @@
       <c r="D145" t="n">
         <v>5.452400207519531</v>
       </c>
-      <c r="E145" t="b">
+      <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
@@ -3362,7 +3362,7 @@
       <c r="D146" t="n">
         <v>5.452400207519531</v>
       </c>
-      <c r="E146" t="b">
+      <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
@@ -3382,7 +3382,7 @@
       <c r="D147" t="n">
         <v>5.426126003265381</v>
       </c>
-      <c r="E147" t="b">
+      <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
@@ -3402,7 +3402,7 @@
       <c r="D148" t="n">
         <v>5.389299869537354</v>
       </c>
-      <c r="E148" t="b">
+      <c r="E148" t="n">
         <v>0</v>
       </c>
       <c r="F148" t="n">
@@ -3422,7 +3422,7 @@
       <c r="D149" t="n">
         <v>5.450699806213379</v>
       </c>
-      <c r="E149" t="b">
+      <c r="E149" t="n">
         <v>1</v>
       </c>
       <c r="F149" t="n">
@@ -3442,7 +3442,7 @@
       <c r="D150" t="n">
         <v>5.522500038146973</v>
       </c>
-      <c r="E150" t="b">
+      <c r="E150" t="n">
         <v>1</v>
       </c>
       <c r="F150" t="n">
@@ -3462,7 +3462,7 @@
       <c r="D151" t="n">
         <v>5.500500202178955</v>
       </c>
-      <c r="E151" t="b">
+      <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
@@ -3482,7 +3482,7 @@
       <c r="D152" t="n">
         <v>5.500500202178955</v>
       </c>
-      <c r="E152" t="b">
+      <c r="E152" t="n">
         <v>0</v>
       </c>
       <c r="F152" t="n">
@@ -3502,7 +3502,7 @@
       <c r="D153" t="n">
         <v>5.500500202178955</v>
       </c>
-      <c r="E153" t="b">
+      <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
@@ -3522,7 +3522,7 @@
       <c r="D154" t="n">
         <v>5.591899871826172</v>
       </c>
-      <c r="E154" t="b">
+      <c r="E154" t="n">
         <v>1</v>
       </c>
       <c r="F154" t="n">
@@ -3542,7 +3542,7 @@
       <c r="D155" t="n">
         <v>5.65500020980835</v>
       </c>
-      <c r="E155" t="b">
+      <c r="E155" t="n">
         <v>1</v>
       </c>
       <c r="F155" t="n">
@@ -3562,7 +3562,7 @@
       <c r="D156" t="n">
         <v>5.67549991607666</v>
       </c>
-      <c r="E156" t="b">
+      <c r="E156" t="n">
         <v>1</v>
       </c>
       <c r="F156" t="n">
@@ -3582,7 +3582,7 @@
       <c r="D157" t="n">
         <v>5.555399894714355</v>
       </c>
-      <c r="E157" t="b">
+      <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
@@ -3602,7 +3602,7 @@
       <c r="D158" t="n">
         <v>5.486400127410889</v>
       </c>
-      <c r="E158" t="b">
+      <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
@@ -3622,7 +3622,7 @@
       <c r="D159" t="n">
         <v>5.486400127410889</v>
       </c>
-      <c r="E159" t="b">
+      <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
@@ -3642,7 +3642,7 @@
       <c r="D160" t="n">
         <v>5.486400127410889</v>
       </c>
-      <c r="E160" t="b">
+      <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
@@ -3662,7 +3662,7 @@
       <c r="D161" t="n">
         <v>5.471290111541748</v>
       </c>
-      <c r="E161" t="b">
+      <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
@@ -3682,7 +3682,7 @@
       <c r="D162" t="n">
         <v>5.470399856567383</v>
       </c>
-      <c r="E162" t="b">
+      <c r="E162" t="n">
         <v>0</v>
       </c>
       <c r="F162" t="n">
@@ -3702,7 +3702,7 @@
       <c r="D163" t="n">
         <v>5.417099952697754</v>
       </c>
-      <c r="E163" t="b">
+      <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
@@ -3722,7 +3722,7 @@
       <c r="D164" t="n">
         <v>5.414700031280518</v>
       </c>
-      <c r="E164" t="b">
+      <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
@@ -3742,7 +3742,7 @@
       <c r="D165" t="n">
         <v>5.438000202178955</v>
       </c>
-      <c r="E165" t="b">
+      <c r="E165" t="n">
         <v>1</v>
       </c>
       <c r="F165" t="n">
@@ -3762,7 +3762,7 @@
       <c r="D166" t="n">
         <v>5.438000202178955</v>
       </c>
-      <c r="E166" t="b">
+      <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
@@ -3782,7 +3782,7 @@
       <c r="D167" t="n">
         <v>5.438000202178955</v>
       </c>
-      <c r="E167" t="b">
+      <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
@@ -3802,7 +3802,7 @@
       <c r="D168" t="n">
         <v>5.422800064086914</v>
       </c>
-      <c r="E168" t="b">
+      <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
@@ -3822,7 +3822,7 @@
       <c r="D169" t="n">
         <v>5.446800231933594</v>
       </c>
-      <c r="E169" t="b">
+      <c r="E169" t="n">
         <v>1</v>
       </c>
       <c r="F169" t="n">
@@ -3842,7 +3842,7 @@
       <c r="D170" t="n">
         <v>5.424300193786621</v>
       </c>
-      <c r="E170" t="b">
+      <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
@@ -3862,7 +3862,7 @@
       <c r="D171" t="n">
         <v>5.48769998550415</v>
       </c>
-      <c r="E171" t="b">
+      <c r="E171" t="n">
         <v>1</v>
       </c>
       <c r="F171" t="n">
@@ -3882,7 +3882,7 @@
       <c r="D172" t="n">
         <v>5.543200016021729</v>
       </c>
-      <c r="E172" t="b">
+      <c r="E172" t="n">
         <v>1</v>
       </c>
       <c r="F172" t="n">
@@ -3902,7 +3902,7 @@
       <c r="D173" t="n">
         <v>5.543200016021729</v>
       </c>
-      <c r="E173" t="b">
+      <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
@@ -3922,7 +3922,7 @@
       <c r="D174" t="n">
         <v>5.543200016021729</v>
       </c>
-      <c r="E174" t="b">
+      <c r="E174" t="n">
         <v>0</v>
       </c>
       <c r="F174" t="n">
@@ -3942,7 +3942,7 @@
       <c r="D175" t="n">
         <v>5.520872116088867</v>
       </c>
-      <c r="E175" t="b">
+      <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
@@ -3962,7 +3962,7 @@
       <c r="D176" t="n">
         <v>5.570700168609619</v>
       </c>
-      <c r="E176" t="b">
+      <c r="E176" t="n">
         <v>1</v>
       </c>
       <c r="F176" t="n">
@@ -3982,7 +3982,7 @@
       <c r="D177" t="n">
         <v>5.585299968719482</v>
       </c>
-      <c r="E177" t="b">
+      <c r="E177" t="n">
         <v>1</v>
       </c>
       <c r="F177" t="n">
@@ -4002,7 +4002,7 @@
       <c r="D178" t="n">
         <v>5.653600215911865</v>
       </c>
-      <c r="E178" t="b">
+      <c r="E178" t="n">
         <v>1</v>
       </c>
       <c r="F178" t="n">
@@ -4022,7 +4022,7 @@
       <c r="D179" t="n">
         <v>5.643099784851074</v>
       </c>
-      <c r="E179" t="b">
+      <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
@@ -4042,7 +4042,7 @@
       <c r="D180" t="n">
         <v>5.643099784851074</v>
       </c>
-      <c r="E180" t="b">
+      <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
@@ -4062,7 +4062,7 @@
       <c r="D181" t="n">
         <v>5.643099784851074</v>
       </c>
-      <c r="E181" t="b">
+      <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
@@ -4082,7 +4082,7 @@
       <c r="D182" t="n">
         <v>5.622840881347656</v>
       </c>
-      <c r="E182" t="b">
+      <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
@@ -4102,7 +4102,7 @@
       <c r="D183" t="n">
         <v>5.614500045776367</v>
       </c>
-      <c r="E183" t="b">
+      <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
@@ -4122,7 +4122,7 @@
       <c r="D184" t="n">
         <v>5.611100196838379</v>
       </c>
-      <c r="E184" t="b">
+      <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
@@ -4142,7 +4142,7 @@
       <c r="D185" t="n">
         <v>5.656599998474121</v>
       </c>
-      <c r="E185" t="b">
+      <c r="E185" t="n">
         <v>1</v>
       </c>
       <c r="F185" t="n">
@@ -4162,7 +4162,7 @@
       <c r="D186" t="n">
         <v>5.75059986114502</v>
       </c>
-      <c r="E186" t="b">
+      <c r="E186" t="n">
         <v>1</v>
       </c>
       <c r="F186" t="n">
@@ -4182,7 +4182,7 @@
       <c r="D187" t="n">
         <v>5.75059986114502</v>
       </c>
-      <c r="E187" t="b">
+      <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
@@ -4202,7 +4202,7 @@
       <c r="D188" t="n">
         <v>5.75059986114502</v>
       </c>
-      <c r="E188" t="b">
+      <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
@@ -4222,7 +4222,7 @@
       <c r="D189" t="n">
         <v>5.726699829101562</v>
       </c>
-      <c r="E189" t="b">
+      <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
@@ -4242,7 +4242,7 @@
       <c r="D190" t="n">
         <v>5.720900058746338</v>
       </c>
-      <c r="E190" t="b">
+      <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
@@ -4262,7 +4262,7 @@
       <c r="D191" t="n">
         <v>5.655499935150146</v>
       </c>
-      <c r="E191" t="b">
+      <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
@@ -4282,7 +4282,7 @@
       <c r="D192" t="n">
         <v>5.635799884796143</v>
       </c>
-      <c r="E192" t="b">
+      <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
@@ -4302,7 +4302,7 @@
       <c r="D193" t="n">
         <v>5.54610013961792</v>
       </c>
-      <c r="E193" t="b">
+      <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
@@ -4322,7 +4322,7 @@
       <c r="D194" t="n">
         <v>5.54610013961792</v>
       </c>
-      <c r="E194" t="b">
+      <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
@@ -4342,7 +4342,7 @@
       <c r="D195" t="n">
         <v>5.54610013961792</v>
       </c>
-      <c r="E195" t="b">
+      <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
@@ -4362,7 +4362,7 @@
       <c r="D196" t="n">
         <v>5.50629997253418</v>
       </c>
-      <c r="E196" t="b">
+      <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
@@ -4382,7 +4382,7 @@
       <c r="D197" t="n">
         <v>5.491899967193604</v>
       </c>
-      <c r="E197" t="b">
+      <c r="E197" t="n">
         <v>0</v>
       </c>
       <c r="F197" t="n">
@@ -4402,7 +4402,7 @@
       <c r="D198" t="n">
         <v>5.455699920654297</v>
       </c>
-      <c r="E198" t="b">
+      <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
@@ -4422,7 +4422,7 @@
       <c r="D199" t="n">
         <v>5.468900203704834</v>
       </c>
-      <c r="E199" t="b">
+      <c r="E199" t="n">
         <v>1</v>
       </c>
       <c r="F199" t="n">
@@ -4442,7 +4442,7 @@
       <c r="D200" t="n">
         <v>5.484899997711182</v>
       </c>
-      <c r="E200" t="b">
+      <c r="E200" t="n">
         <v>1</v>
       </c>
       <c r="F200" t="n">
@@ -4462,7 +4462,7 @@
       <c r="D201" t="n">
         <v>5.484899997711182</v>
       </c>
-      <c r="E201" t="b">
+      <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
@@ -4482,7 +4482,7 @@
       <c r="D202" t="n">
         <v>5.484899997711182</v>
       </c>
-      <c r="E202" t="b">
+      <c r="E202" t="n">
         <v>0</v>
       </c>
       <c r="F202" t="n">
@@ -4502,7 +4502,7 @@
       <c r="D203" t="n">
         <v>5.47130012512207</v>
       </c>
-      <c r="E203" t="b">
+      <c r="E203" t="n">
         <v>0</v>
       </c>
       <c r="F203" t="n">
@@ -4522,7 +4522,7 @@
       <c r="D204" t="n">
         <v>5.405600070953369</v>
       </c>
-      <c r="E204" t="b">
+      <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
@@ -4542,7 +4542,7 @@
       <c r="D205" t="n">
         <v>5.478099822998047</v>
       </c>
-      <c r="E205" t="b">
+      <c r="E205" t="n">
         <v>1</v>
       </c>
       <c r="F205" t="n">
@@ -4562,7 +4562,7 @@
       <c r="D206" t="n">
         <v>5.482500076293945</v>
       </c>
-      <c r="E206" t="b">
+      <c r="E206" t="n">
         <v>1</v>
       </c>
       <c r="F206" t="n">
@@ -4582,7 +4582,7 @@
       <c r="D207" t="n">
         <v>5.59089994430542</v>
       </c>
-      <c r="E207" t="b">
+      <c r="E207" t="n">
         <v>1</v>
       </c>
       <c r="F207" t="n">
@@ -4602,7 +4602,7 @@
       <c r="D208" t="n">
         <v>5.59089994430542</v>
       </c>
-      <c r="E208" t="b">
+      <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
@@ -4622,7 +4622,7 @@
       <c r="D209" t="n">
         <v>5.59089994430542</v>
       </c>
-      <c r="E209" t="b">
+      <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
@@ -4642,7 +4642,7 @@
       <c r="D210" t="n">
         <v>5.485400199890137</v>
       </c>
-      <c r="E210" t="b">
+      <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
@@ -4662,7 +4662,7 @@
       <c r="D211" t="n">
         <v>5.495699882507324</v>
       </c>
-      <c r="E211" t="b">
+      <c r="E211" t="n">
         <v>1</v>
       </c>
       <c r="F211" t="n">
@@ -4682,7 +4682,7 @@
       <c r="D212" t="n">
         <v>5.507900238037109</v>
       </c>
-      <c r="E212" t="b">
+      <c r="E212" t="n">
         <v>1</v>
       </c>
       <c r="F212" t="n">
@@ -4702,7 +4702,7 @@
       <c r="D213" t="n">
         <v>5.56220006942749</v>
       </c>
-      <c r="E213" t="b">
+      <c r="E213" t="n">
         <v>1</v>
       </c>
       <c r="F213" t="n">
@@ -4722,7 +4722,7 @@
       <c r="D214" t="n">
         <v>5.627699851989746</v>
       </c>
-      <c r="E214" t="b">
+      <c r="E214" t="n">
         <v>1</v>
       </c>
       <c r="F214" t="n">
@@ -4742,7 +4742,7 @@
       <c r="D215" t="n">
         <v>5.627699851989746</v>
       </c>
-      <c r="E215" t="b">
+      <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
@@ -4762,7 +4762,7 @@
       <c r="D216" t="n">
         <v>5.627699851989746</v>
       </c>
-      <c r="E216" t="b">
+      <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
@@ -4782,7 +4782,7 @@
       <c r="D217" t="n">
         <v>5.609200000762939</v>
       </c>
-      <c r="E217" t="b">
+      <c r="E217" t="n">
         <v>0</v>
       </c>
       <c r="F217" t="n">
@@ -4802,7 +4802,7 @@
       <c r="D218" t="n">
         <v>5.615099906921387</v>
       </c>
-      <c r="E218" t="b">
+      <c r="E218" t="n">
         <v>1</v>
       </c>
       <c r="F218" t="n">
@@ -4822,7 +4822,7 @@
       <c r="D219" t="n">
         <v>5.647500038146973</v>
       </c>
-      <c r="E219" t="b">
+      <c r="E219" t="n">
         <v>1</v>
       </c>
       <c r="F219" t="n">
@@ -4842,7 +4842,7 @@
       <c r="D220" t="n">
         <v>5.642000198364258</v>
       </c>
-      <c r="E220" t="b">
+      <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
@@ -4862,7 +4862,7 @@
       <c r="D221" t="n">
         <v>5.567500114440918</v>
       </c>
-      <c r="E221" t="b">
+      <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
@@ -4882,7 +4882,7 @@
       <c r="D222" t="n">
         <v>5.567500114440918</v>
       </c>
-      <c r="E222" t="b">
+      <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
@@ -4902,7 +4902,7 @@
       <c r="D223" t="n">
         <v>5.567500114440918</v>
       </c>
-      <c r="E223" t="b">
+      <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
@@ -4922,7 +4922,7 @@
       <c r="D224" t="n">
         <v>5.59660005569458</v>
       </c>
-      <c r="E224" t="b">
+      <c r="E224" t="n">
         <v>1</v>
       </c>
       <c r="F224" t="n">
@@ -4942,7 +4942,7 @@
       <c r="D225" t="n">
         <v>5.58430004119873</v>
       </c>
-      <c r="E225" t="b">
+      <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
@@ -4962,7 +4962,7 @@
       <c r="D226" t="n">
         <v>5.662899971008301</v>
       </c>
-      <c r="E226" t="b">
+      <c r="E226" t="n">
         <v>1</v>
       </c>
       <c r="F226" t="n">
@@ -4982,7 +4982,7 @@
       <c r="D227" t="n">
         <v>5.667399883270264</v>
       </c>
-      <c r="E227" t="b">
+      <c r="E227" t="n">
         <v>1</v>
       </c>
       <c r="F227" t="n">
@@ -5002,7 +5002,7 @@
       <c r="D228" t="n">
         <v>5.625699996948242</v>
       </c>
-      <c r="E228" t="b">
+      <c r="E228" t="n">
         <v>0</v>
       </c>
       <c r="F228" t="n">
@@ -5022,7 +5022,7 @@
       <c r="D229" t="n">
         <v>5.625699996948242</v>
       </c>
-      <c r="E229" t="b">
+      <c r="E229" t="n">
         <v>0</v>
       </c>
       <c r="F229" t="n">
@@ -5042,7 +5042,7 @@
       <c r="D230" t="n">
         <v>5.625699996948242</v>
       </c>
-      <c r="E230" t="b">
+      <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
@@ -5062,7 +5062,7 @@
       <c r="D231" t="n">
         <v>5.612370014190674</v>
       </c>
-      <c r="E231" t="b">
+      <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="n">
@@ -5082,7 +5082,7 @@
       <c r="D232" t="n">
         <v>5.503900051116943</v>
       </c>
-      <c r="E232" t="b">
+      <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
@@ -5102,7 +5102,7 @@
       <c r="D233" t="n">
         <v>5.48169994354248</v>
       </c>
-      <c r="E233" t="b">
+      <c r="E233" t="n">
         <v>0</v>
       </c>
       <c r="F233" t="n">
@@ -5122,7 +5122,7 @@
       <c r="D234" t="n">
         <v>5.460999965667725</v>
       </c>
-      <c r="E234" t="b">
+      <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
@@ -5142,7 +5142,7 @@
       <c r="D235" t="n">
         <v>5.423900127410889</v>
       </c>
-      <c r="E235" t="b">
+      <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
@@ -5162,7 +5162,7 @@
       <c r="D236" t="n">
         <v>5.423900127410889</v>
       </c>
-      <c r="E236" t="b">
+      <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
@@ -5182,7 +5182,7 @@
       <c r="D237" t="n">
         <v>5.423900127410889</v>
       </c>
-      <c r="E237" t="b">
+      <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
@@ -5202,7 +5202,7 @@
       <c r="D238" t="n">
         <v>5.513599872589111</v>
       </c>
-      <c r="E238" t="b">
+      <c r="E238" t="n">
         <v>1</v>
       </c>
       <c r="F238" t="n">
@@ -5222,7 +5222,7 @@
       <c r="D239" t="n">
         <v>5.536099910736084</v>
       </c>
-      <c r="E239" t="b">
+      <c r="E239" t="n">
         <v>1</v>
       </c>
       <c r="F239" t="n">
@@ -5242,7 +5242,7 @@
       <c r="D240" t="n">
         <v>5.449699878692627</v>
       </c>
-      <c r="E240" t="b">
+      <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
@@ -5262,7 +5262,7 @@
       <c r="D241" t="n">
         <v>5.473800182342529</v>
       </c>
-      <c r="E241" t="b">
+      <c r="E241" t="n">
         <v>1</v>
       </c>
       <c r="F241" t="n">
@@ -5282,7 +5282,7 @@
       <c r="D242" t="n">
         <v>5.436699867248535</v>
       </c>
-      <c r="E242" t="b">
+      <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
@@ -5302,7 +5302,7 @@
       <c r="D243" t="n">
         <v>5.436699867248535</v>
       </c>
-      <c r="E243" t="b">
+      <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
@@ -5322,7 +5322,7 @@
       <c r="D244" t="n">
         <v>5.436699867248535</v>
       </c>
-      <c r="E244" t="b">
+      <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
@@ -5342,7 +5342,7 @@
       <c r="D245" t="n">
         <v>5.433199882507324</v>
       </c>
-      <c r="E245" t="b">
+      <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
@@ -5362,7 +5362,7 @@
       <c r="D246" t="n">
         <v>5.448500156402588</v>
       </c>
-      <c r="E246" t="b">
+      <c r="E246" t="n">
         <v>1</v>
       </c>
       <c r="F246" t="n">
@@ -5382,7 +5382,7 @@
       <c r="D247" t="n">
         <v>5.423999786376953</v>
       </c>
-      <c r="E247" t="b">
+      <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
@@ -5402,7 +5402,7 @@
       <c r="D248" t="n">
         <v>5.440299987792969</v>
       </c>
-      <c r="E248" t="b">
+      <c r="E248" t="n">
         <v>1</v>
       </c>
       <c r="F248" t="n">
@@ -5422,7 +5422,7 @@
       <c r="D249" t="n">
         <v>5.47629976272583</v>
       </c>
-      <c r="E249" t="b">
+      <c r="E249" t="n">
         <v>1</v>
       </c>
       <c r="F249" t="n">
@@ -5442,7 +5442,7 @@
       <c r="D250" t="n">
         <v>5.47629976272583</v>
       </c>
-      <c r="E250" t="b">
+      <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
@@ -5462,7 +5462,7 @@
       <c r="D251" t="n">
         <v>5.47629976272583</v>
       </c>
-      <c r="E251" t="b">
+      <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
@@ -5482,7 +5482,7 @@
       <c r="D252" t="n">
         <v>5.454299926757812</v>
       </c>
-      <c r="E252" t="b">
+      <c r="E252" t="n">
         <v>0</v>
       </c>
       <c r="F252" t="n">
@@ -5502,7 +5502,7 @@
       <c r="D253" t="n">
         <v>5.494200229644775</v>
       </c>
-      <c r="E253" t="b">
+      <c r="E253" t="n">
         <v>1</v>
       </c>
       <c r="F253" t="n">
@@ -5522,7 +5522,7 @@
       <c r="D254" t="n">
         <v>5.5346999168396</v>
       </c>
-      <c r="E254" t="b">
+      <c r="E254" t="n">
         <v>1</v>
       </c>
       <c r="F254" t="n">
@@ -5542,7 +5542,7 @@
       <c r="D255" t="n">
         <v>5.596099853515625</v>
       </c>
-      <c r="E255" t="b">
+      <c r="E255" t="n">
         <v>1</v>
       </c>
       <c r="F255" t="n">
@@ -5562,7 +5562,7 @@
       <c r="D256" t="n">
         <v>5.581699848175049</v>
       </c>
-      <c r="E256" t="b">
+      <c r="E256" t="n">
         <v>0</v>
       </c>
       <c r="F256" t="n">
@@ -5582,7 +5582,7 @@
       <c r="D257" t="n">
         <v>5.581699848175049</v>
       </c>
-      <c r="E257" t="b">
+      <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="n">
@@ -5602,7 +5602,7 @@
       <c r="D258" t="n">
         <v>5.581699848175049</v>
       </c>
-      <c r="E258" t="b">
+      <c r="E258" t="n">
         <v>0</v>
       </c>
       <c r="F258" t="n">
@@ -5622,7 +5622,7 @@
       <c r="D259" t="n">
         <v>5.610599994659424</v>
       </c>
-      <c r="E259" t="b">
+      <c r="E259" t="n">
         <v>1</v>
       </c>
       <c r="F259" t="n">
@@ -5642,7 +5642,7 @@
       <c r="D260" t="n">
         <v>5.594699859619141</v>
       </c>
-      <c r="E260" t="b">
+      <c r="E260" t="n">
         <v>0</v>
       </c>
       <c r="F260" t="n">
@@ -5662,7 +5662,7 @@
       <c r="D261" t="n">
         <v>5.651999950408936</v>
       </c>
-      <c r="E261" t="b">
+      <c r="E261" t="n">
         <v>1</v>
       </c>
       <c r="F261" t="n">
@@ -5682,7 +5682,7 @@
       <c r="D262" t="n">
         <v>5.668000221252441</v>
       </c>
-      <c r="E262" t="b">
+      <c r="E262" t="n">
         <v>1</v>
       </c>
       <c r="F262" t="n">
@@ -5702,7 +5702,7 @@
       <c r="D263" t="n">
         <v>5.651800155639648</v>
       </c>
-      <c r="E263" t="b">
+      <c r="E263" t="n">
         <v>0</v>
       </c>
       <c r="F263" t="n">
@@ -5722,7 +5722,7 @@
       <c r="D264" t="n">
         <v>5.651800155639648</v>
       </c>
-      <c r="E264" t="b">
+      <c r="E264" t="n">
         <v>0</v>
       </c>
       <c r="F264" t="n">
@@ -5742,7 +5742,7 @@
       <c r="D265" t="n">
         <v>5.651800155639648</v>
       </c>
-      <c r="E265" t="b">
+      <c r="E265" t="n">
         <v>0</v>
       </c>
       <c r="F265" t="n">
@@ -5762,7 +5762,7 @@
       <c r="D266" t="n">
         <v>5.635900020599365</v>
       </c>
-      <c r="E266" t="b">
+      <c r="E266" t="n">
         <v>0</v>
       </c>
       <c r="F266" t="n">
@@ -5782,7 +5782,7 @@
       <c r="D267" t="n">
         <v>5.68809986114502</v>
       </c>
-      <c r="E267" t="b">
+      <c r="E267" t="n">
         <v>1</v>
       </c>
       <c r="F267" t="n">
@@ -5802,7 +5802,7 @@
       <c r="D268" t="n">
         <v>5.689300060272217</v>
       </c>
-      <c r="E268" t="b">
+      <c r="E268" t="n">
         <v>1</v>
       </c>
       <c r="F268" t="n">
@@ -5822,7 +5822,7 @@
       <c r="D269" t="n">
         <v>5.686500072479248</v>
       </c>
-      <c r="E269" t="b">
+      <c r="E269" t="n">
         <v>0</v>
       </c>
       <c r="F269" t="n">
@@ -5842,7 +5842,7 @@
       <c r="D270" t="n">
         <v>5.664000034332275</v>
       </c>
-      <c r="E270" t="b">
+      <c r="E270" t="n">
         <v>0</v>
       </c>
       <c r="F270" t="n">
@@ -5862,7 +5862,7 @@
       <c r="D271" t="n">
         <v>5.664000034332275</v>
       </c>
-      <c r="E271" t="b">
+      <c r="E271" t="n">
         <v>0</v>
       </c>
       <c r="F271" t="n">
@@ -5882,7 +5882,7 @@
       <c r="D272" t="n">
         <v>5.664000034332275</v>
       </c>
-      <c r="E272" t="b">
+      <c r="E272" t="n">
         <v>0</v>
       </c>
       <c r="F272" t="n">
@@ -5902,7 +5902,7 @@
       <c r="D273" t="n">
         <v>5.664000034332275</v>
       </c>
-      <c r="E273" t="b">
+      <c r="E273" t="n">
         <v>0</v>
       </c>
       <c r="F273" t="n">
@@ -5922,7 +5922,7 @@
       <c r="D274" t="n">
         <v>5.685812950134277</v>
       </c>
-      <c r="E274" t="b">
+      <c r="E274" t="n">
         <v>1</v>
       </c>
       <c r="F274" t="n">
@@ -5942,7 +5942,7 @@
       <c r="D275" t="n">
         <v>5.71019983291626</v>
       </c>
-      <c r="E275" t="b">
+      <c r="E275" t="n">
         <v>1</v>
       </c>
       <c r="F275" t="n">
@@ -5962,7 +5962,7 @@
       <c r="D276" t="n">
         <v>5.760000228881836</v>
       </c>
-      <c r="E276" t="b">
+      <c r="E276" t="n">
         <v>1</v>
       </c>
       <c r="F276" t="n">
@@ -5982,7 +5982,7 @@
       <c r="D277" t="n">
         <v>5.76230001449585</v>
       </c>
-      <c r="E277" t="b">
+      <c r="E277" t="n">
         <v>1</v>
       </c>
       <c r="F277" t="n">
@@ -6002,7 +6002,7 @@
       <c r="D278" t="n">
         <v>5.789400100708008</v>
       </c>
-      <c r="E278" t="b">
+      <c r="E278" t="n">
         <v>1</v>
       </c>
       <c r="F278" t="n">
@@ -6022,7 +6022,7 @@
       <c r="D279" t="n">
         <v>5.789400100708008</v>
       </c>
-      <c r="E279" t="b">
+      <c r="E279" t="n">
         <v>0</v>
       </c>
       <c r="F279" t="n">
@@ -6042,7 +6042,7 @@
       <c r="D280" t="n">
         <v>5.789400100708008</v>
       </c>
-      <c r="E280" t="b">
+      <c r="E280" t="n">
         <v>0</v>
       </c>
       <c r="F280" t="n">
@@ -6062,7 +6062,7 @@
       <c r="D281" t="n">
         <v>5.677525997161865</v>
       </c>
-      <c r="E281" t="b">
+      <c r="E281" t="n">
         <v>0</v>
       </c>
       <c r="F281" t="n">
@@ -6082,7 +6082,7 @@
       <c r="D282" t="n">
         <v>5.790599822998047</v>
       </c>
-      <c r="E282" t="b">
+      <c r="E282" t="n">
         <v>1</v>
       </c>
       <c r="F282" t="n">
